--- a/Excel/047_Teste_de_Hipoteses.xlsx
+++ b/Excel/047_Teste_de_Hipoteses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07E6402-3686-48B5-8E6C-E76FA802A3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4C2592-3A14-4A8A-8AE7-D55CC3BDB8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="852" xr2:uid="{B0C019F5-D846-4566-8442-F345D5A07EE7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="852" firstSheet="1" activeTab="4" xr2:uid="{B0C019F5-D846-4566-8442-F345D5A07EE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Gerenciador de Cenários" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="43">
   <si>
     <t>Curso de Excel do Básico ao Avançado</t>
   </si>
@@ -182,17 +182,21 @@
   </si>
   <si>
     <t>Pergunta: Qual é o lucro testando preço e quantidade vendida?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -320,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -387,19 +391,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -455,9 +446,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -527,7 +515,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -537,7 +528,39 @@
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -969,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029B04A1-18E1-4EC6-894D-FDB7058694AB}">
   <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -994,57 +1017,57 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
@@ -1054,10 +1077,10 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
@@ -1075,38 +1098,38 @@
       <c r="J7" s="7"/>
     </row>
     <row r="10" spans="2:14" ht="28.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="12" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="24">
-        <v>70000</v>
+      <c r="I12" s="23">
+        <v>30000</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -1118,21 +1141,21 @@
       </c>
       <c r="D13" s="15">
         <f>$I$12*C13</f>
-        <v>5600</v>
+        <v>2400</v>
       </c>
       <c r="E13" s="16">
         <f>$I$13</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13" s="16">
         <f>D13*E13</f>
-        <v>22400</v>
+        <v>14400</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -1144,15 +1167,15 @@
       </c>
       <c r="D14" s="15">
         <f t="shared" ref="D14:D24" si="0">$I$12*C14</f>
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="16">
         <f t="shared" ref="E14:E24" si="1">$I$13</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="16">
         <f t="shared" ref="F14:F24" si="2">D14*E14</f>
-        <v>16800</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -1164,22 +1187,22 @@
       </c>
       <c r="D15" s="15">
         <f t="shared" si="0"/>
-        <v>5600</v>
+        <v>2400</v>
       </c>
       <c r="E15" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" s="16">
         <f t="shared" si="2"/>
-        <v>22400</v>
+        <v>14400</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f>SUM(F13:F24)</f>
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="J15" s="10"/>
     </row>
@@ -1192,20 +1215,20 @@
       </c>
       <c r="D16" s="15">
         <f t="shared" si="0"/>
-        <v>6300</v>
+        <v>2700</v>
       </c>
       <c r="E16" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" s="16">
         <f t="shared" si="2"/>
-        <v>25200</v>
+        <v>16200</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <v>120000</v>
       </c>
       <c r="J16" s="10"/>
@@ -1219,15 +1242,15 @@
       </c>
       <c r="D17" s="15">
         <f t="shared" si="0"/>
-        <v>6300</v>
+        <v>2700</v>
       </c>
       <c r="E17" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" s="16">
         <f t="shared" si="2"/>
-        <v>25200</v>
+        <v>16200</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
@@ -1242,22 +1265,22 @@
       </c>
       <c r="D18" s="15">
         <f t="shared" si="0"/>
-        <v>5600</v>
+        <v>2400</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18" s="16">
         <f t="shared" si="2"/>
-        <v>22400</v>
+        <v>14400</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <f>I15-I16</f>
-        <v>160000</v>
+        <v>60000</v>
       </c>
       <c r="J18" s="10"/>
     </row>
@@ -1270,15 +1293,15 @@
       </c>
       <c r="D19" s="15">
         <f t="shared" si="0"/>
-        <v>5600</v>
+        <v>2400</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" si="2"/>
-        <v>22400</v>
+        <v>14400</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="10"/>
@@ -1293,15 +1316,15 @@
       </c>
       <c r="D20" s="15">
         <f t="shared" si="0"/>
-        <v>6300</v>
+        <v>2700</v>
       </c>
       <c r="E20" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" si="2"/>
-        <v>25200</v>
+        <v>16200</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>33</v>
@@ -1322,15 +1345,15 @@
       </c>
       <c r="D21" s="15">
         <f t="shared" si="0"/>
-        <v>5600</v>
+        <v>2400</v>
       </c>
       <c r="E21" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" s="16">
         <f t="shared" si="2"/>
-        <v>22400</v>
+        <v>14400</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>9</v>
@@ -1338,7 +1361,7 @@
       <c r="I21" s="8">
         <v>2</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="23">
         <v>100000</v>
       </c>
     </row>
@@ -1351,15 +1374,15 @@
       </c>
       <c r="D22" s="15">
         <f t="shared" si="0"/>
-        <v>5600</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" s="16">
         <f t="shared" si="2"/>
-        <v>22400</v>
+        <v>14400</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>10</v>
@@ -1367,7 +1390,7 @@
       <c r="I22" s="8">
         <v>4</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="23">
         <v>70000</v>
       </c>
     </row>
@@ -1380,15 +1403,15 @@
       </c>
       <c r="D23" s="15">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="E23" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F23" s="16">
         <f t="shared" si="2"/>
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>11</v>
@@ -1396,7 +1419,7 @@
       <c r="I23" s="8">
         <v>6</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="23">
         <v>30000</v>
       </c>
     </row>
@@ -1409,15 +1432,15 @@
       </c>
       <c r="D24" s="15">
         <f t="shared" si="0"/>
-        <v>6300</v>
+        <v>2700</v>
       </c>
       <c r="E24" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" s="16">
         <f t="shared" si="2"/>
-        <v>25200</v>
+        <v>16200</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>12</v>
@@ -1425,24 +1448,24 @@
       <c r="I24" s="8">
         <v>8</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="23">
         <v>10000</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="3"/>
-      <c r="C25" s="31">
+      <c r="C25" s="30">
         <f>SUM(C13:C24)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <f>SUM(D13:D24)</f>
-        <v>70000</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="33">
+        <v>30000</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="32">
         <f>SUM(F13:F24)</f>
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>13</v>
@@ -1450,7 +1473,7 @@
       <c r="I25" s="8">
         <v>9</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="23">
         <v>2000</v>
       </c>
     </row>
@@ -1483,7 +1506,7 @@
       <c r="J32"/>
     </row>
   </sheetData>
-  <scenarios current="1" show="1">
+  <scenarios current="2" show="2">
     <scenario name="Melhor Preço 1" locked="1" count="2" user="Rodrigo Costa" comment="Criado por Rodrigo Costa em 10/06/2024_x000a_Alterado por Rodrigo Costa em 10/06/2024">
       <inputCells r="I12" val="100000" numFmtId="164"/>
       <inputCells r="I13" val="2" numFmtId="44"/>
@@ -1513,10 +1536,10 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1529,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE44450-8170-4476-89E4-0724D664AFDF}">
   <dimension ref="B1:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1554,57 +1577,57 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
@@ -1614,10 +1637,10 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="12" t="s">
         <v>31</v>
       </c>
@@ -1635,37 +1658,39 @@
       <c r="J7" s="7"/>
     </row>
     <row r="10" spans="2:14" ht="28.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="12" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="23">
+        <v>5000</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
@@ -1674,13 +1699,24 @@
       <c r="C13" s="14">
         <v>0.08</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="D13" s="15">
+        <f>$I$12*C13</f>
+        <v>400</v>
+      </c>
+      <c r="E13" s="16">
+        <f>$I$13</f>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="F13" s="16">
+        <f>D13*E13</f>
+        <v>11999.999999999998</v>
+      </c>
       <c r="H13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="24">
+        <v>29.999999999999996</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
@@ -1689,9 +1725,18 @@
       <c r="C14" s="14">
         <v>0.06</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="D14" s="15">
+        <f t="shared" ref="D14:F24" si="0">$I$12*C14</f>
+        <v>300</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14:E24" si="1">$I$13</f>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" ref="F14:F24" si="2">D14*E14</f>
+        <v>8999.9999999999982</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
@@ -1700,15 +1745,24 @@
       <c r="C15" s="14">
         <v>0.08</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="D15" s="15">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="1"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="2"/>
+        <v>11999.999999999998</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f>SUM(F13:F24)</f>
-        <v>0</v>
+        <v>149999.99999999997</v>
       </c>
       <c r="J15" s="10"/>
     </row>
@@ -1719,13 +1773,24 @@
       <c r="C16" s="14">
         <v>0.09</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="D16" s="15">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="1"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="2"/>
+        <v>13499.999999999998</v>
+      </c>
       <c r="H16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="18">
+        <v>120000</v>
+      </c>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -1735,9 +1800,18 @@
       <c r="C17" s="14">
         <v>0.09</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="D17" s="15">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="1"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="2"/>
+        <v>13499.999999999998</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -1749,15 +1823,24 @@
       <c r="C18" s="14">
         <v>0.08</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="D18" s="15">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="1"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="2"/>
+        <v>11999.999999999998</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <f>I15-I16</f>
-        <v>0</v>
+        <v>29999.999999999971</v>
       </c>
       <c r="J18" s="10"/>
     </row>
@@ -1768,9 +1851,18 @@
       <c r="C19" s="14">
         <v>0.08</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="D19" s="15">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="1"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="2"/>
+        <v>11999.999999999998</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1783,9 +1875,18 @@
       <c r="C20" s="14">
         <v>0.09</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="D20" s="15">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="1"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="2"/>
+        <v>13499.999999999998</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1798,9 +1899,18 @@
       <c r="C21" s="14">
         <v>0.08</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="D21" s="15">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="1"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="2"/>
+        <v>11999.999999999998</v>
+      </c>
       <c r="H21" s="4" t="s">
         <v>37</v>
       </c>
@@ -1815,9 +1925,18 @@
       <c r="C22" s="14">
         <v>0.08</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="D22" s="15">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="1"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="2"/>
+        <v>11999.999999999998</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>38</v>
       </c>
@@ -1832,9 +1951,18 @@
       <c r="C23" s="14">
         <v>0.1</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="D23" s="15">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="1"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="2"/>
+        <v>14999.999999999998</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1847,9 +1975,18 @@
       <c r="C24" s="14">
         <v>0.09</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="D24" s="15">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="1"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="2"/>
+        <v>13499.999999999998</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1857,18 +1994,18 @@
     </row>
     <row r="25" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="3"/>
-      <c r="C25" s="31">
+      <c r="C25" s="30">
         <f>SUM(C13:C24)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <f>SUM(D13:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="33">
+        <v>5000</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="32">
         <f>SUM(F13:F24)</f>
-        <v>0</v>
+        <v>149999.99999999997</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1907,10 +2044,10 @@
     <mergeCell ref="B10:I10"/>
   </mergeCells>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1923,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECC3043-23DE-480A-B143-DB9A942A58FD}">
   <dimension ref="B1:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1948,57 +2085,57 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
@@ -2008,10 +2145,10 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="12" t="s">
         <v>31</v>
       </c>
@@ -2029,37 +2166,39 @@
       <c r="J7" s="7"/>
     </row>
     <row r="10" spans="2:14" ht="28.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="12" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="26"/>
+      <c r="I12" s="25">
+        <v>40000</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
@@ -2068,13 +2207,24 @@
       <c r="C13" s="14">
         <v>0.08</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="D13" s="15">
+        <f>$I$12*C13</f>
+        <v>3200</v>
+      </c>
+      <c r="E13" s="16">
+        <f>$I$13</f>
+        <v>8</v>
+      </c>
+      <c r="F13" s="16">
+        <f>D13*E13</f>
+        <v>25600</v>
+      </c>
       <c r="H13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="27"/>
+      <c r="I13" s="26">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
@@ -2083,9 +2233,18 @@
       <c r="C14" s="14">
         <v>0.06</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="D14" s="15">
+        <f t="shared" ref="D14:D24" si="0">$I$12*C14</f>
+        <v>2400</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14:E24" si="1">$I$13</f>
+        <v>8</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" ref="F14:F24" si="2">D14*E14</f>
+        <v>19200</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
@@ -2094,15 +2253,24 @@
       <c r="C15" s="14">
         <v>0.08</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="D15" s="15">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="2"/>
+        <v>25600</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f>SUM(F13:F24)</f>
-        <v>0</v>
+        <v>320000</v>
       </c>
       <c r="J15" s="10"/>
     </row>
@@ -2113,13 +2281,24 @@
       <c r="C16" s="14">
         <v>0.09</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="D16" s="15">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="2"/>
+        <v>28800</v>
+      </c>
       <c r="H16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="18">
+        <v>120000</v>
+      </c>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2129,9 +2308,18 @@
       <c r="C17" s="14">
         <v>0.09</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="D17" s="15">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="2"/>
+        <v>28800</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17"/>
       <c r="J17" s="10"/>
@@ -2143,15 +2331,24 @@
       <c r="C18" s="14">
         <v>0.08</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="D18" s="15">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="2"/>
+        <v>25600</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <f>I15-I16</f>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="J18" s="10"/>
     </row>
@@ -2162,9 +2359,18 @@
       <c r="C19" s="14">
         <v>0.08</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="D19" s="15">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="2"/>
+        <v>25600</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -2177,9 +2383,18 @@
       <c r="C20" s="14">
         <v>0.09</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="D20" s="15">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="2"/>
+        <v>28800</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -2192,9 +2407,18 @@
       <c r="C21" s="14">
         <v>0.08</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="D21" s="15">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="2"/>
+        <v>25600</v>
+      </c>
       <c r="H21" s="4" t="s">
         <v>39</v>
       </c>
@@ -2209,9 +2433,18 @@
       <c r="C22" s="14">
         <v>0.08</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="D22" s="15">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="2"/>
+        <v>25600</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>38</v>
       </c>
@@ -2226,9 +2459,18 @@
       <c r="C23" s="14">
         <v>0.1</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="D23" s="15">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="2"/>
+        <v>32000</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2241,9 +2483,18 @@
       <c r="C24" s="14">
         <v>0.09</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="D24" s="15">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="2"/>
+        <v>28800</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2251,18 +2502,18 @@
     </row>
     <row r="25" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="3"/>
-      <c r="C25" s="31">
+      <c r="C25" s="30">
         <f>SUM(C13:C24)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <f>SUM(D13:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="33">
+        <v>40000</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="32">
         <f>SUM(F13:F24)</f>
-        <v>0</v>
+        <v>320000</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -2301,10 +2552,10 @@
     <mergeCell ref="B10:I10"/>
   </mergeCells>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2317,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121F2E77-9B0B-4A39-833B-E3B956D0FD2C}">
   <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2342,57 +2593,57 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
@@ -2402,11 +2653,11 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="7"/>
@@ -2423,37 +2674,39 @@
       <c r="J7" s="7"/>
     </row>
     <row r="10" spans="2:14" ht="28.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="12" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="41">
+        <v>50000</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
@@ -2462,13 +2715,24 @@
       <c r="C13" s="14">
         <v>0.08</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="D13" s="15">
+        <f>$I$12*C13</f>
+        <v>4000</v>
+      </c>
+      <c r="E13" s="16">
+        <f>$I$13</f>
+        <v>7</v>
+      </c>
+      <c r="F13" s="16">
+        <f>D13*E13</f>
+        <v>28000</v>
+      </c>
       <c r="H13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
@@ -2477,9 +2741,18 @@
       <c r="C14" s="14">
         <v>0.06</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="D14" s="15">
+        <f t="shared" ref="D14:D24" si="0">$I$12*C14</f>
+        <v>3000</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14:E24" si="1">$I$13</f>
+        <v>7</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" ref="F14:F24" si="2">D14*E14</f>
+        <v>21000</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
@@ -2488,15 +2761,24 @@
       <c r="C15" s="14">
         <v>0.08</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="D15" s="15">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f>SUM(F13:F24)</f>
-        <v>0</v>
+        <v>350000</v>
       </c>
       <c r="J15" s="10"/>
     </row>
@@ -2507,13 +2789,24 @@
       <c r="C16" s="14">
         <v>0.09</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="D16" s="15">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="2"/>
+        <v>31500</v>
+      </c>
       <c r="H16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="18">
+        <v>120000</v>
+      </c>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2523,9 +2816,18 @@
       <c r="C17" s="14">
         <v>0.09</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="D17" s="15">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="2"/>
+        <v>31500</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -2537,15 +2839,24 @@
       <c r="C18" s="14">
         <v>0.08</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="D18" s="15">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <f>I15-I16</f>
-        <v>0</v>
+        <v>230000</v>
       </c>
       <c r="J18" s="10"/>
     </row>
@@ -2556,9 +2867,18 @@
       <c r="C19" s="14">
         <v>0.08</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="D19" s="15">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
     </row>
     <row r="20" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2" t="s">
@@ -2567,9 +2887,18 @@
       <c r="C20" s="14">
         <v>0.09</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="D20" s="15">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="2"/>
+        <v>31500</v>
+      </c>
       <c r="H20" s="4" t="s">
         <v>40</v>
       </c>
@@ -2584,13 +2913,22 @@
       <c r="C21" s="14">
         <v>0.08</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="H21" s="34" t="s">
+      <c r="D21" s="15">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="F21" s="16">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="29" t="s">
         <v>8</v>
       </c>
       <c r="J21" s="4"/>
@@ -2603,11 +2941,25 @@
       <c r="C22" s="14">
         <v>0.08</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="23"/>
+      <c r="D22" s="15">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="22">
+        <f>I15-I16</f>
+        <v>230000</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
@@ -2618,11 +2970,25 @@
       <c r="C23" s="14">
         <v>0.1</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="D23" s="15">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="2"/>
+        <v>35000</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="dataTable" ref="I23:I33" dt2D="0" dtr="0" r1="I13"/>
+        <v>-20000</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
@@ -2633,75 +2999,124 @@
       <c r="C24" s="14">
         <v>0.09</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="D24" s="15">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="2"/>
+        <v>31500</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3</v>
+      </c>
+      <c r="I24" s="6">
+        <v>30000</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="3"/>
-      <c r="C25" s="31">
+      <c r="C25" s="30">
         <f>SUM(C13:C24)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <f>SUM(D13:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="33">
+        <v>50000</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="32">
         <f>SUM(F13:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+        <v>350000</v>
+      </c>
+      <c r="H25" s="6">
+        <v>4</v>
+      </c>
+      <c r="I25" s="6">
+        <v>80000</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="6">
+        <v>5</v>
+      </c>
+      <c r="I26" s="6">
+        <v>130000</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="6">
+        <v>6</v>
+      </c>
+      <c r="I27" s="6">
+        <v>180000</v>
+      </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="H28" s="6">
+        <v>7</v>
+      </c>
+      <c r="I28" s="6">
+        <v>230000</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="H29" s="6">
+        <v>8</v>
+      </c>
+      <c r="I29" s="6">
+        <v>280000</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="H30" s="6">
+        <v>9</v>
+      </c>
+      <c r="I30" s="6">
+        <v>330000</v>
+      </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="6">
+        <v>10</v>
+      </c>
+      <c r="I31" s="6">
+        <v>380000</v>
+      </c>
     </row>
     <row r="32" spans="2:11" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="H32" s="6">
+        <v>11</v>
+      </c>
+      <c r="I32" s="6">
+        <v>430000</v>
+      </c>
     </row>
     <row r="33" spans="8:9" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="H33" s="6">
+        <v>12</v>
+      </c>
+      <c r="I33" s="6">
+        <v>480000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2711,10 +3126,10 @@
     <mergeCell ref="B10:I10"/>
   </mergeCells>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2727,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C00EA16-FE27-4C77-8E0C-476EC8267A9E}">
   <dimension ref="B1:O32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2741,7 +3156,7 @@
     <col min="8" max="8" width="29.53515625" customWidth="1"/>
     <col min="9" max="9" width="21.53515625" style="9" customWidth="1"/>
     <col min="10" max="10" width="14.765625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="14.53515625" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="15.69140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2754,54 +3169,54 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="2:13" s="1" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
@@ -2811,11 +3226,11 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="7"/>
@@ -2832,37 +3247,39 @@
       <c r="J7" s="7"/>
     </row>
     <row r="10" spans="2:13" ht="28.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="12" spans="2:13" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="23">
+        <v>60000</v>
+      </c>
     </row>
     <row r="13" spans="2:13" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
@@ -2871,13 +3288,24 @@
       <c r="C13" s="14">
         <v>0.08</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="D13" s="15">
+        <f>$I$12*C13</f>
+        <v>4800</v>
+      </c>
+      <c r="E13" s="16">
+        <f>$I$13</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="16">
+        <f>D13*E13</f>
+        <v>19200</v>
+      </c>
       <c r="H13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="2:13" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
@@ -2886,9 +3314,18 @@
       <c r="C14" s="14">
         <v>0.06</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="D14" s="15">
+        <f t="shared" ref="D14:D24" si="0">$I$12*C14</f>
+        <v>3600</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14:E24" si="1">$I$13</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" ref="F14:F24" si="2">D14*E14</f>
+        <v>14400</v>
+      </c>
     </row>
     <row r="15" spans="2:13" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
@@ -2897,15 +3334,24 @@
       <c r="C15" s="14">
         <v>0.08</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="D15" s="15">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="2"/>
+        <v>19200</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f>SUM(F13:F24)</f>
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="J15" s="10"/>
     </row>
@@ -2916,13 +3362,24 @@
       <c r="C16" s="14">
         <v>0.09</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="D16" s="15">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="2"/>
+        <v>21600</v>
+      </c>
       <c r="H16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="18">
+        <v>120000</v>
+      </c>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="2:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2932,9 +3389,18 @@
       <c r="C17" s="14">
         <v>0.09</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="D17" s="15">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="2"/>
+        <v>21600</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -2946,15 +3412,24 @@
       <c r="C18" s="14">
         <v>0.08</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="D18" s="15">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="2"/>
+        <v>19200</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <f>I15-I16</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="J18" s="10"/>
     </row>
@@ -2965,9 +3440,18 @@
       <c r="C19" s="14">
         <v>0.08</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="D19" s="15">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="2"/>
+        <v>19200</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>41</v>
       </c>
@@ -2982,15 +3466,24 @@
       <c r="C20" s="14">
         <v>0.09</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="I20" s="41" t="s">
+      <c r="D20" s="15">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="2"/>
+        <v>21600</v>
+      </c>
+      <c r="I20" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
     </row>
     <row r="21" spans="2:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2" t="s">
@@ -2999,39 +3492,48 @@
       <c r="C21" s="14">
         <v>0.08</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="H21" s="35">
+      <c r="D21" s="15">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="2"/>
+        <v>19200</v>
+      </c>
+      <c r="H21" s="34">
         <f>I15-I16</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="36">
+        <v>120000</v>
+      </c>
+      <c r="I21" s="35">
+        <v>20000</v>
+      </c>
+      <c r="J21" s="35">
+        <f>I21+10000</f>
         <v>30000</v>
       </c>
-      <c r="J21" s="36">
-        <f>I21+10000</f>
+      <c r="K21" s="35">
+        <f t="shared" ref="K21:O21" si="3">J21+10000</f>
         <v>40000</v>
       </c>
-      <c r="K21" s="36">
-        <f t="shared" ref="K21:O21" si="0">J21+10000</f>
+      <c r="L21" s="35">
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="L21" s="36">
-        <f t="shared" si="0"/>
+      <c r="M21" s="35">
+        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
-      <c r="M21" s="36">
-        <f t="shared" si="0"/>
+      <c r="N21" s="35">
+        <f t="shared" si="3"/>
         <v>70000</v>
       </c>
-      <c r="N21" s="36">
-        <f t="shared" si="0"/>
+      <c r="O21" s="35">
+        <f t="shared" si="3"/>
         <v>80000</v>
-      </c>
-      <c r="O21" s="36">
-        <f t="shared" si="0"/>
-        <v>90000</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -3041,19 +3543,43 @@
       <c r="C22" s="14">
         <v>0.08</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="D22" s="15">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="2"/>
+        <v>19200</v>
+      </c>
       <c r="H22" s="6">
         <v>2</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
+      <c r="I22" s="36">
+        <f t="dataTable" ref="I22:O32" dt2D="1" dtr="1" r1="I12" r2="I13"/>
+        <v>-80000</v>
+      </c>
+      <c r="J22" s="36">
+        <v>-60000</v>
+      </c>
+      <c r="K22" s="36">
+        <v>-40000</v>
+      </c>
+      <c r="L22" s="36">
+        <v>-20000</v>
+      </c>
+      <c r="M22" s="36">
+        <v>0</v>
+      </c>
+      <c r="N22" s="36">
+        <v>20000</v>
+      </c>
+      <c r="O22" s="36">
+        <v>40000</v>
+      </c>
     </row>
     <row r="23" spans="2:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="2" t="s">
@@ -3062,20 +3588,43 @@
       <c r="C23" s="14">
         <v>0.1</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="D23" s="15">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
       <c r="H23" s="6">
         <f>H22+1</f>
         <v>3</v>
       </c>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
+      <c r="I23" s="36">
+        <v>-60000</v>
+      </c>
+      <c r="J23" s="36">
+        <v>-30000</v>
+      </c>
+      <c r="K23" s="36">
+        <v>0</v>
+      </c>
+      <c r="L23" s="36">
+        <v>30000</v>
+      </c>
+      <c r="M23" s="36">
+        <v>60000</v>
+      </c>
+      <c r="N23" s="36">
+        <v>90000</v>
+      </c>
+      <c r="O23" s="36">
+        <v>120000</v>
+      </c>
     </row>
     <row r="24" spans="2:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2" t="s">
@@ -3084,138 +3633,273 @@
       <c r="C24" s="14">
         <v>0.09</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="D24" s="15">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="2"/>
+        <v>21600</v>
+      </c>
       <c r="H24" s="6">
-        <f t="shared" ref="H24:H32" si="1">H23+1</f>
+        <f t="shared" ref="H24:H32" si="4">H23+1</f>
         <v>4</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
+      <c r="I24" s="36">
+        <v>-40000</v>
+      </c>
+      <c r="J24" s="36">
+        <v>0</v>
+      </c>
+      <c r="K24" s="36">
+        <v>40000</v>
+      </c>
+      <c r="L24" s="36">
+        <v>80000</v>
+      </c>
+      <c r="M24" s="36">
+        <v>120000</v>
+      </c>
+      <c r="N24" s="36">
+        <v>160000</v>
+      </c>
+      <c r="O24" s="36">
+        <v>200000</v>
+      </c>
     </row>
     <row r="25" spans="2:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="3"/>
-      <c r="C25" s="31">
+      <c r="C25" s="30">
         <f>SUM(C13:C24)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <f>SUM(D13:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="33">
+        <v>60000</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="32">
         <f>SUM(F13:F24)</f>
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
+      <c r="I25" s="36">
+        <v>-20000</v>
+      </c>
+      <c r="J25" s="36">
+        <v>30000</v>
+      </c>
+      <c r="K25" s="36">
+        <v>80000</v>
+      </c>
+      <c r="L25" s="36">
+        <v>130000</v>
+      </c>
+      <c r="M25" s="36">
+        <v>180000</v>
+      </c>
+      <c r="N25" s="36">
+        <v>230000</v>
+      </c>
+      <c r="O25" s="36">
+        <v>280000</v>
+      </c>
     </row>
     <row r="26" spans="2:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="H26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
+      <c r="I26" s="36">
+        <v>0</v>
+      </c>
+      <c r="J26" s="36">
+        <v>60000</v>
+      </c>
+      <c r="K26" s="36">
+        <v>120000</v>
+      </c>
+      <c r="L26" s="36">
+        <v>180000</v>
+      </c>
+      <c r="M26" s="36">
+        <v>240000</v>
+      </c>
+      <c r="N26" s="36">
+        <v>300000</v>
+      </c>
+      <c r="O26" s="36">
+        <v>360000</v>
+      </c>
     </row>
     <row r="27" spans="2:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="H27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
+      <c r="I27" s="36">
+        <v>20000</v>
+      </c>
+      <c r="J27" s="36">
+        <v>90000</v>
+      </c>
+      <c r="K27" s="36">
+        <v>160000</v>
+      </c>
+      <c r="L27" s="36">
+        <v>230000</v>
+      </c>
+      <c r="M27" s="36">
+        <v>300000</v>
+      </c>
+      <c r="N27" s="36">
+        <v>370000</v>
+      </c>
+      <c r="O27" s="36">
+        <v>440000</v>
+      </c>
     </row>
     <row r="28" spans="2:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="H28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
+      <c r="I28" s="36">
+        <v>40000</v>
+      </c>
+      <c r="J28" s="36">
+        <v>120000</v>
+      </c>
+      <c r="K28" s="36">
+        <v>200000</v>
+      </c>
+      <c r="L28" s="36">
+        <v>280000</v>
+      </c>
+      <c r="M28" s="36">
+        <v>360000</v>
+      </c>
+      <c r="N28" s="36">
+        <v>440000</v>
+      </c>
+      <c r="O28" s="36">
+        <v>520000</v>
+      </c>
     </row>
     <row r="29" spans="2:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="H29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
+      <c r="I29" s="36">
+        <v>60000</v>
+      </c>
+      <c r="J29" s="36">
+        <v>150000</v>
+      </c>
+      <c r="K29" s="36">
+        <v>240000</v>
+      </c>
+      <c r="L29" s="36">
+        <v>330000</v>
+      </c>
+      <c r="M29" s="36">
+        <v>420000</v>
+      </c>
+      <c r="N29" s="36">
+        <v>510000</v>
+      </c>
+      <c r="O29" s="36">
+        <v>600000</v>
+      </c>
     </row>
     <row r="30" spans="2:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="H30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
+      <c r="I30" s="36">
+        <v>80000</v>
+      </c>
+      <c r="J30" s="36">
+        <v>180000</v>
+      </c>
+      <c r="K30" s="36">
+        <v>280000</v>
+      </c>
+      <c r="L30" s="36">
+        <v>380000</v>
+      </c>
+      <c r="M30" s="36">
+        <v>480000</v>
+      </c>
+      <c r="N30" s="36">
+        <v>580000</v>
+      </c>
+      <c r="O30" s="36">
+        <v>680000</v>
+      </c>
     </row>
     <row r="31" spans="2:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="H31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
+      <c r="I31" s="36">
+        <v>100000</v>
+      </c>
+      <c r="J31" s="36">
+        <v>210000</v>
+      </c>
+      <c r="K31" s="36">
+        <v>320000</v>
+      </c>
+      <c r="L31" s="36">
+        <v>430000</v>
+      </c>
+      <c r="M31" s="36">
+        <v>540000</v>
+      </c>
+      <c r="N31" s="36">
+        <v>650000</v>
+      </c>
+      <c r="O31" s="36">
+        <v>760000</v>
+      </c>
     </row>
     <row r="32" spans="2:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="H32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
+      <c r="I32" s="36">
+        <v>120000</v>
+      </c>
+      <c r="J32" s="36">
+        <v>240000</v>
+      </c>
+      <c r="K32" s="36">
+        <v>360000</v>
+      </c>
+      <c r="L32" s="36">
+        <v>480000</v>
+      </c>
+      <c r="M32" s="36">
+        <v>600000</v>
+      </c>
+      <c r="N32" s="36">
+        <v>720000</v>
+      </c>
+      <c r="O32" s="36">
+        <v>840000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3226,10 +3910,15 @@
     <mergeCell ref="I20:L20"/>
   </mergeCells>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:O32">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
